--- a/8.10.0/UPDATE/ITEM_1/RTE/attachment/圖.xlsx
+++ b/8.10.0/UPDATE/ITEM_1/RTE/attachment/圖.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>離線任務名稱</t>
   </si>
@@ -55,13 +55,17 @@
   </si>
   <si>
     <t>功.取消強制斷線</t>
+  </si>
+  <si>
+    <t>狀態說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -255,6 +259,86 @@
       </right>
       <top/>
       <bottom style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -270,34 +354,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -309,6 +420,14 @@
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="0"/>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -355,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,9 +506,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,6 +541,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,344 +717,491 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:X13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:24" ht="17.25" thickBot="1"/>
-    <row r="3" spans="2:24" ht="17.25" thickTop="1">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="13"/>
-    </row>
-    <row r="4" spans="2:24">
-      <c r="B4" s="14"/>
-      <c r="C4" s="9" t="s">
+    <row r="2" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="6"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="5" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="17"/>
-    </row>
-    <row r="5" spans="2:24">
-      <c r="B5" s="14"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="17"/>
-    </row>
-    <row r="6" spans="2:24">
-      <c r="B6" s="14"/>
-      <c r="C6" s="4" t="s">
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="4" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="4" t="s">
+      <c r="M6" s="19"/>
+      <c r="N6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="4" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="17"/>
-    </row>
-    <row r="7" spans="2:24">
-      <c r="B7" s="14"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="18" t="s">
+      <c r="Q6" s="19"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="18" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U7" s="19"/>
-      <c r="V7" s="20" t="s">
+      <c r="U7" s="24"/>
+      <c r="V7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="21"/>
-      <c r="X7" s="17"/>
-    </row>
-    <row r="8" spans="2:24">
-      <c r="B8" s="14"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="18" t="s">
+      <c r="W7" s="11"/>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="18" t="s">
+      <c r="S8" s="24"/>
+      <c r="T8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="19"/>
-      <c r="V8" s="20" t="s">
+      <c r="U8" s="24"/>
+      <c r="V8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="21"/>
-      <c r="X8" s="17"/>
-    </row>
-    <row r="9" spans="2:24">
-      <c r="B9" s="14"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="18" t="s">
+      <c r="W8" s="11"/>
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="18" t="s">
+      <c r="S9" s="24"/>
+      <c r="T9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="19"/>
-      <c r="V9" s="20" t="s">
+      <c r="U9" s="24"/>
+      <c r="V9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="17"/>
-    </row>
-    <row r="10" spans="2:24">
-      <c r="B10" s="14"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="18" t="s">
+      <c r="W9" s="11"/>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="19"/>
-      <c r="T10" s="18" t="s">
+      <c r="S10" s="24"/>
+      <c r="T10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="19"/>
-      <c r="V10" s="20" t="s">
+      <c r="U10" s="24"/>
+      <c r="V10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W10" s="21"/>
-      <c r="X10" s="17"/>
-    </row>
-    <row r="11" spans="2:24">
-      <c r="B11" s="14"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="18" t="s">
+      <c r="W10" s="11"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="18" t="s">
+      <c r="S11" s="24"/>
+      <c r="T11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U11" s="19"/>
-      <c r="V11" s="20" t="s">
+      <c r="U11" s="24"/>
+      <c r="V11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="21"/>
-      <c r="X11" s="17"/>
-    </row>
-    <row r="12" spans="2:24" ht="17.25" thickBot="1">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="24"/>
-    </row>
-    <row r="13" spans="2:24" ht="17.25" thickTop="1"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="9"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="14"/>
+    </row>
+    <row r="19" spans="2:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
+  <mergeCells count="58">
+    <mergeCell ref="E13:W17"/>
+    <mergeCell ref="C13:D17"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:S8"/>
@@ -947,24 +1215,31 @@
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -973,12 +1248,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -987,12 +1262,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
